--- a/data/Campaign.xlsx
+++ b/data/Campaign.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pravi\eclipse-workspace\SalesForce\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF40508A-09BA-4F50-B446-B37F448B2689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F826EB9-4FAD-4BF5-BFE4-4FB480A9B7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CreateCampaign" sheetId="1" r:id="rId1"/>
-    <sheet name="EditWorkTypeGroup" sheetId="2" r:id="rId2"/>
-    <sheet name="DeleteWorkTypeGroup" sheetId="3" r:id="rId3"/>
+    <sheet name="Leads" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>WorkTypeGroup Name</t>
-  </si>
-  <si>
-    <t>WorkTypeGroup Description</t>
-  </si>
-  <si>
-    <t>ProTest</t>
-  </si>
-  <si>
-    <t>TestProfileTest</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Campaign Name</t>
   </si>
@@ -47,13 +33,19 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>Raj</t>
-  </si>
-  <si>
-    <t>Pravin</t>
-  </si>
-  <si>
-    <t>Bootcamp777</t>
+    <t>BootCamp</t>
+  </si>
+  <si>
+    <t>Raj777</t>
+  </si>
+  <si>
+    <t>Pravin777</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>TestLeaf</t>
   </si>
 </sst>
 </file>
@@ -394,101 +386,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3B5E37-9E4F-4D8C-B42C-BD22E35647DD}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB230F9-10E0-4AC5-8023-D9AFE7ACAF50}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
